--- a/1 - Avant Projet/1 - Échanges/1 - Parties prenantes.xlsx
+++ b/1 - Avant Projet/1 - Échanges/1 - Parties prenantes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Grandjean\Documents\SeriousGame\Serious-Game-MMI\1 - Avant Projet\1 - Échanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\1 - Échanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{189FB4C2-3B4D-4BC8-9302-A2A51926C725}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Nom - Prénom</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Courriel</t>
   </si>
   <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
     <t>GRANDJEAN MAGLIONE Tom</t>
   </si>
   <si>
@@ -63,12 +60,18 @@
   </si>
   <si>
     <t>ayoub.karine@uha.fr</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>MOE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,23 +427,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31C61B-0AA0-4EC4-964F-76B38D9A5021}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,48 +456,57 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B634FA24-0A88-439F-9738-A5BAEF1F16AD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{817498DC-3BFE-4DE1-83F9-42B50197DDB4}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4D68E3D7-6491-4251-B437-40700B1B8BCF}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{6FE6B8EB-FF76-4475-95A5-7B07DA8933C3}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1 - Avant Projet/1 - Échanges/1 - Parties prenantes.xlsx
+++ b/1 - Avant Projet/1 - Échanges/1 - Parties prenantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Nom - Prénom</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>MOE</t>
+  </si>
+  <si>
+    <t>BOSCATO Stéphan</t>
+  </si>
+  <si>
+    <t>gpiut@orange.fr</t>
+  </si>
+  <si>
+    <t>IUT</t>
   </si>
 </sst>
 </file>
@@ -129,6 +138,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Nom - Prénom"/>
+    <tableColumn id="2" name="Fonction"/>
+    <tableColumn id="3" name="Organisme"/>
+    <tableColumn id="4" name="Courriel" dataCellStyle="Lien hypertexte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -464,6 +486,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -475,6 +500,9 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -486,6 +514,9 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -497,8 +528,22 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +552,11 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>